--- a/file_trans/sheetName.xlsx
+++ b/file_trans/sheetName.xlsx
@@ -14,9 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>asdfdf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>fsdf</t>
+  </si>
+  <si>
+    <t>asdfdsf</t>
+  </si>
+  <si>
+    <t>fsfsdf12</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>sdafsdf12</t>
+  </si>
+  <si>
+    <t>sdafsdffsad</t>
+  </si>
+  <si>
+    <t>sadfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>fsdf123</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>dsdsadsd</t>
+  </si>
+  <si>
+    <t>adf</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>gsadfdsf</t>
   </si>
 </sst>
 </file>
@@ -355,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -365,6 +407,176 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>123</v>
+      </c>
+      <c r="D1">
+        <v>123</v>
+      </c>
+      <c r="E1">
+        <v>321</v>
+      </c>
+      <c r="F1">
+        <v>123</v>
+      </c>
+      <c r="G1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3123123</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v/>
+      </c>
+      <c r="D2">
+        <v/>
+      </c>
+      <c r="E2">
+        <v/>
+      </c>
+      <c r="F2">
+        <v/>
+      </c>
+      <c r="G2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13123</v>
+      </c>
+      <c r="B3">
+        <v/>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>2132</v>
+      </c>
+      <c r="F3">
+        <v/>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v/>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v/>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>1234554321</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v/>
+      </c>
+      <c r="B5">
+        <v/>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1231111177</v>
+      </c>
+      <c r="E5">
+        <v/>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v/>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v/>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v/>
+      </c>
+      <c r="F6">
+        <v/>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v/>
+      </c>
+      <c r="C7">
+        <v/>
+      </c>
+      <c r="D7">
+        <v>123123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>23435</v>
+      </c>
+      <c r="C8">
+        <v>2323</v>
+      </c>
+      <c r="D8">
+        <v/>
+      </c>
+      <c r="E8">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
